--- a/data/trans_dic/P15B_3_R-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P15B_3_R-Dificultad-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.09381428145128501</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.2033056158106452</v>
+        <v>0.2033056158106451</v>
       </c>
     </row>
     <row r="5">
@@ -708,16 +708,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1551839646581584</v>
+        <v>0.1607481065286762</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1061169855744614</v>
+        <v>0.09727335589092526</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.05439256234036455</v>
+        <v>0.05339625268968733</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1805136647607496</v>
+        <v>0.1875991378233551</v>
       </c>
       <c r="G5" s="5" t="n">
         <v>0</v>
@@ -726,22 +726,22 @@
         <v>0</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.02798370944769919</v>
+        <v>0.02913896946628387</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.04348763412874598</v>
+        <v>0.04418412640446175</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.09389315871417914</v>
+        <v>0.09053320078801431</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.05948529345016371</v>
+        <v>0.05352610758956518</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.04894518668709198</v>
+        <v>0.05285124650008587</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1247524640735248</v>
+        <v>0.1233915759252105</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.5924406465692922</v>
+        <v>0.6111421923617</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2758140064415978</v>
+        <v>0.2691739629467211</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2019042400580544</v>
+        <v>0.2099026784251245</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.4753563019953907</v>
+        <v>0.4911516247074537</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.209056371820151</v>
+        <v>0.210937300081756</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.06980947706222608</v>
+        <v>0.08413312200233997</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1621670249696434</v>
+        <v>0.1618274108158595</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1852276289151581</v>
+        <v>0.1909221408629194</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.3304864264525876</v>
+        <v>0.3220422609674218</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1476336583432747</v>
+        <v>0.1463660246740589</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1473484338442797</v>
+        <v>0.1510760126479967</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2997970925379249</v>
+        <v>0.3015081352060631</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.1516001752800784</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.2497855530540344</v>
+        <v>0.2497855530540345</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.145203637745173</v>
@@ -844,38 +844,38 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1730550251380032</v>
+        <v>0.1537035427357628</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2215172645270503</v>
+        <v>0.2266827463017372</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.06263300055425007</v>
+        <v>0.06249193828632067</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1418005407615064</v>
+        <v>0.1374776870828342</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.0320639572431967</v>
+        <v>0.0331464354718972</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.02552982809485887</v>
+        <v>0.02639226731312837</v>
       </c>
       <c r="I8" s="5" t="inlineStr"/>
       <c r="J8" s="5" t="n">
-        <v>0.03046100446723018</v>
+        <v>0.02559978480932154</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1361678653137268</v>
+        <v>0.1388474475675017</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1512931148507776</v>
+        <v>0.1516167796953535</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.03087523297374587</v>
+        <v>0.03030629141617168</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.08507802155654426</v>
+        <v>0.08818201016950362</v>
       </c>
     </row>
     <row r="9">
@@ -886,38 +886,38 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.4956682840168385</v>
+        <v>0.4630547305738265</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.4182172470920325</v>
+        <v>0.4091192924529804</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2926931410697406</v>
+        <v>0.2768594876382606</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.4051496337102998</v>
+        <v>0.3854277987933296</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.318988312699424</v>
+        <v>0.3253690901479483</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.168662209045496</v>
+        <v>0.1731093357563036</v>
       </c>
       <c r="I9" s="5" t="inlineStr"/>
       <c r="J9" s="5" t="n">
-        <v>0.1750135234774019</v>
+        <v>0.1646784191126517</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3523903771324856</v>
+        <v>0.3629130848118619</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.2750675459277466</v>
+        <v>0.2756460981985563</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1493964772517892</v>
+        <v>0.1462955331117538</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2246979474269804</v>
+        <v>0.2253626720888469</v>
       </c>
     </row>
     <row r="10">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.3089072677881588</v>
+        <v>0.3009770377113594</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1219158543793269</v>
+        <v>0.1135515320341022</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1069987118365101</v>
+        <v>0.1036185419108269</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.09234992685925797</v>
+        <v>0.09319885104531207</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.01521557941610451</v>
+        <v>0.01524119093047724</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.02041566583527542</v>
+        <v>0.020442138866735</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.03837350254808798</v>
+        <v>0.04240109444974861</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.2149161010288603</v>
+        <v>0.210754624681093</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.07490773396319679</v>
+        <v>0.0727853881469209</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.08099633900022871</v>
+        <v>0.07720186783075303</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.08676089010927462</v>
+        <v>0.08804459958340696</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.6139445694870459</v>
+        <v>0.6233735119145709</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3047163213204087</v>
+        <v>0.3063742637541175</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3465474763783984</v>
+        <v>0.3390389124171434</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2880485020767785</v>
+        <v>0.2842048292150343</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.232404913765011</v>
+        <v>0.2295738313474381</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1493040030363407</v>
+        <v>0.1401289421057414</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1906522638845922</v>
+        <v>0.1830095393615276</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1846614457666285</v>
+        <v>0.1893588022264191</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.4379172161142658</v>
+        <v>0.4363653871914774</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1910157474603792</v>
+        <v>0.1915068737802068</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.2190594673165926</v>
+        <v>0.2198604372062727</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2220711353291451</v>
+        <v>0.2144180233892032</v>
       </c>
     </row>
     <row r="13">
@@ -1115,13 +1115,13 @@
         <v>0</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02238317287345703</v>
+        <v>0.02169893358851045</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.03789409904933787</v>
+        <v>0.03735541019942226</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.08301889773081596</v>
+        <v>0.07564314341293524</v>
       </c>
       <c r="G14" s="5" t="n">
         <v>0</v>
@@ -1130,22 +1130,22 @@
         <v>0</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.07382985180006103</v>
+        <v>0.08393501657336597</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.02548278861523494</v>
+        <v>0.02486856232454215</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.0292685314830188</v>
+        <v>0.0382289000893509</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.09052144540219553</v>
+        <v>0.1010743228815619</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.04389218447791525</v>
+        <v>0.0427886651477003</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2457033372770443</v>
+        <v>0.246672655429046</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2498118769578558</v>
+        <v>0.2293420921126995</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3271295003200746</v>
+        <v>0.3435919383595872</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3895636507247602</v>
+        <v>0.4123063875325976</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3648158915536817</v>
+        <v>0.4280350468500844</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3236295760163084</v>
+        <v>0.3581767072227744</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.4431487741441145</v>
+        <v>0.4557955849848818</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.08047690948525366</v>
+        <v>0.0765210004327847</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2212050120875151</v>
+        <v>0.194304164509742</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.2099121472177203</v>
+        <v>0.2120129392644698</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.3287486348243789</v>
+        <v>0.3227775747043458</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2257688422223168</v>
+        <v>0.2225218478386488</v>
       </c>
     </row>
     <row r="16">
@@ -1213,7 +1213,7 @@
         <v>0.1501487983846099</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.2251200706489317</v>
+        <v>0.2251200706489316</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.0909671679132229</v>
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2445069035187553</v>
+        <v>0.2496526344040373</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1665825018527586</v>
+        <v>0.1693785217121772</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1064501452388936</v>
+        <v>0.1013871637828838</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1665661108627925</v>
+        <v>0.1610185385228425</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.04343446734531847</v>
+        <v>0.04232564011512252</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.0285201794015248</v>
+        <v>0.02696073241855882</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.04290861068760603</v>
+        <v>0.04246104628774915</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.0461402238007986</v>
+        <v>0.0436231430109329</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.165564912561272</v>
+        <v>0.1690335263542286</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.1110656557378991</v>
+        <v>0.110546987431756</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.08580290484599322</v>
+        <v>0.08149303496242861</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1136525386250102</v>
+        <v>0.1149870125346849</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.4139469480897556</v>
+        <v>0.4041279787840794</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2640718212087866</v>
+        <v>0.2671635908607645</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2067239884599238</v>
+        <v>0.2108321370683443</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2994762012737923</v>
+        <v>0.2904873451088611</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.179029131112644</v>
+        <v>0.1646804761330485</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.09386941358695641</v>
+        <v>0.09035576330108613</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1193886405039176</v>
+        <v>0.1197501408067497</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1135366234583911</v>
+        <v>0.10752481269727</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2889751719115751</v>
+        <v>0.2858136910338081</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1714542632513196</v>
+        <v>0.1706120341244362</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.147353268557296</v>
+        <v>0.1466701877839348</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1897717425183976</v>
+        <v>0.1864179056551695</v>
       </c>
     </row>
     <row r="19">
@@ -1596,16 +1596,16 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>2933</v>
+        <v>3038</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>8194</v>
+        <v>7511</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>4046</v>
+        <v>3972</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>7548</v>
+        <v>7844</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0</v>
@@ -1614,22 +1614,22 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1905</v>
+        <v>1984</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>2113</v>
+        <v>2147</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>4112</v>
+        <v>3965</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>9380</v>
+        <v>8441</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>6973</v>
+        <v>7530</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>11277</v>
+        <v>11154</v>
       </c>
     </row>
     <row r="7">
@@ -1640,40 +1640,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>11197</v>
+        <v>11551</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>21296</v>
+        <v>20784</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>15018</v>
+        <v>15613</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>19877</v>
+        <v>20538</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>5204</v>
+        <v>5251</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>5618</v>
+        <v>6771</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>11041</v>
+        <v>11018</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>8999</v>
+        <v>9275</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>14474</v>
+        <v>14104</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>23281</v>
+        <v>23081</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>20992</v>
+        <v>21523</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>27100</v>
+        <v>27255</v>
       </c>
     </row>
     <row r="8">
@@ -1776,38 +1776,38 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>5956</v>
+        <v>5290</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>21450</v>
+        <v>21950</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>3138</v>
+        <v>3131</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>7003</v>
+        <v>6789</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>976</v>
+        <v>1009</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>2123</v>
+        <v>2195</v>
       </c>
       <c r="I10" s="6" t="inlineStr"/>
       <c r="J10" s="6" t="n">
-        <v>2228</v>
+        <v>1873</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>8831</v>
+        <v>9004</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>27233</v>
+        <v>27292</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>3083</v>
+        <v>3026</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>10425</v>
+        <v>10805</v>
       </c>
     </row>
     <row r="11">
@@ -1818,38 +1818,38 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>17058</v>
+        <v>15936</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>40497</v>
+        <v>39616</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>14665</v>
+        <v>13871</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>20008</v>
+        <v>19034</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>9709</v>
+        <v>9903</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>14028</v>
+        <v>14398</v>
       </c>
       <c r="I11" s="6" t="inlineStr"/>
       <c r="J11" s="6" t="n">
-        <v>12803</v>
+        <v>12047</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>22853</v>
+        <v>23535</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>49513</v>
+        <v>49617</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>14918</v>
+        <v>14608</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>27534</v>
+        <v>27615</v>
       </c>
     </row>
     <row r="12">
@@ -1952,40 +1952,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>13638</v>
+        <v>13288</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>8241</v>
+        <v>7676</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>5025</v>
+        <v>4866</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>6892</v>
+        <v>6955</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>2140</v>
+        <v>2365</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>14963</v>
+        <v>14674</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>9823</v>
+        <v>9544</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>7865</v>
+        <v>7496</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>11314</v>
+        <v>11481</v>
       </c>
     </row>
     <row r="15">
@@ -1996,40 +1996,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>27105</v>
+        <v>27521</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>20598</v>
+        <v>20710</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>16274</v>
+        <v>15921</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>21496</v>
+        <v>21209</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>5921</v>
+        <v>5849</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>9486</v>
+        <v>8903</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>9559</v>
+        <v>9176</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>10300</v>
+        <v>10562</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>30490</v>
+        <v>30382</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>25048</v>
+        <v>25112</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>21270</v>
+        <v>21348</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>28959</v>
+        <v>27961</v>
       </c>
     </row>
     <row r="16">
@@ -2135,13 +2135,13 @@
         <v>0</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>969</v>
+        <v>939</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>959</v>
+        <v>945</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>4490</v>
+        <v>4091</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0</v>
@@ -2150,22 +2150,22 @@
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1656</v>
+        <v>1883</v>
       </c>
       <c r="J18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>906</v>
+        <v>884</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>2066</v>
+        <v>2698</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>4321</v>
+        <v>4825</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>4638</v>
+        <v>4521</v>
       </c>
     </row>
     <row r="19">
@@ -2176,40 +2176,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>6062</v>
+        <v>6085</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>10813</v>
+        <v>9927</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>8279</v>
+        <v>8696</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>21071</v>
+        <v>22301</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>3975</v>
+        <v>4663</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>8832</v>
+        <v>9774</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>9940</v>
+        <v>10223</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>4151</v>
+        <v>3947</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>7867</v>
+        <v>6910</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>14814</v>
+        <v>14963</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>15694</v>
+        <v>15409</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>23856</v>
+        <v>23513</v>
       </c>
     </row>
     <row r="20">
@@ -2312,40 +2312,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>29862</v>
+        <v>30491</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>47464</v>
+        <v>48261</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>20944</v>
+        <v>19948</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>36630</v>
+        <v>35410</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>3983</v>
+        <v>3881</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>7258</v>
+        <v>6861</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>8170</v>
+        <v>8085</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>10570</v>
+        <v>9994</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>35404</v>
+        <v>36145</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>59909</v>
+        <v>59629</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>33219</v>
+        <v>31551</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>51030</v>
+        <v>51629</v>
       </c>
     </row>
     <row r="23">
@@ -2356,40 +2356,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>50557</v>
+        <v>49357</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>75241</v>
+        <v>76122</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>40674</v>
+        <v>41482</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>65858</v>
+        <v>63881</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>16417</v>
+        <v>15102</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>23887</v>
+        <v>22993</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>22732</v>
+        <v>22801</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>26010</v>
+        <v>24633</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>61793</v>
+        <v>61117</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>92483</v>
+        <v>92028</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>57049</v>
+        <v>56785</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>85208</v>
+        <v>83702</v>
       </c>
     </row>
     <row r="24">
